--- a/Code/Results/Cases/Case_8_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965710105767629</v>
+        <v>0.9964304434216974</v>
       </c>
       <c r="D2">
-        <v>1.017814075294365</v>
+        <v>1.0176063700803</v>
       </c>
       <c r="E2">
-        <v>1.003460611354481</v>
+        <v>1.00334911854369</v>
       </c>
       <c r="F2">
-        <v>1.023700923787734</v>
+        <v>1.023638130739821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042957374112406</v>
+        <v>1.042884712089255</v>
       </c>
       <c r="J2">
-        <v>1.018854768083117</v>
+        <v>1.018718446026952</v>
       </c>
       <c r="K2">
-        <v>1.029030687371991</v>
+        <v>1.028825750718901</v>
       </c>
       <c r="L2">
-        <v>1.014871943989209</v>
+        <v>1.014761991188463</v>
       </c>
       <c r="M2">
-        <v>1.034839654053072</v>
+        <v>1.034777685819356</v>
       </c>
       <c r="N2">
-        <v>1.020301658718069</v>
+        <v>1.020092465787049</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036145626351746</v>
+        <v>1.036096582349272</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031597369706925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031461315017133</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019777200425029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000396590784724</v>
+        <v>0.9999170540275755</v>
       </c>
       <c r="D3">
-        <v>1.02024631061553</v>
+        <v>1.019736356803318</v>
       </c>
       <c r="E3">
-        <v>1.006467241299548</v>
+        <v>1.006061308140585</v>
       </c>
       <c r="F3">
-        <v>1.026430543308834</v>
+        <v>1.026224317049801</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043591434976319</v>
+        <v>1.043391339448029</v>
       </c>
       <c r="J3">
-        <v>1.020876450171058</v>
+        <v>1.020409980489304</v>
       </c>
       <c r="K3">
-        <v>1.030626527728978</v>
+        <v>1.030122784761426</v>
       </c>
       <c r="L3">
-        <v>1.017018035974732</v>
+        <v>1.016617216435</v>
       </c>
       <c r="M3">
-        <v>1.036736050727974</v>
+        <v>1.036532297814379</v>
       </c>
       <c r="N3">
-        <v>1.022326211826466</v>
+        <v>1.021040919250398</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037646504724755</v>
+        <v>1.037485247294932</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032723099088243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032375479898734</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020026747535651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002828811783787</v>
+        <v>1.002135955600751</v>
       </c>
       <c r="D4">
-        <v>1.021796046403579</v>
+        <v>1.021095114564221</v>
       </c>
       <c r="E4">
-        <v>1.008384786483502</v>
+        <v>1.007793246630924</v>
       </c>
       <c r="F4">
-        <v>1.028172539753567</v>
+        <v>1.027876082390624</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043984958775245</v>
+        <v>1.043704253384499</v>
       </c>
       <c r="J4">
-        <v>1.022160432028539</v>
+        <v>1.021485180781742</v>
       </c>
       <c r="K4">
-        <v>1.031638341192976</v>
+        <v>1.030945436066093</v>
       </c>
       <c r="L4">
-        <v>1.018383056987774</v>
+        <v>1.017798515260106</v>
       </c>
       <c r="M4">
-        <v>1.037942433538613</v>
+        <v>1.037649317726589</v>
       </c>
       <c r="N4">
-        <v>1.02361201708546</v>
+        <v>1.021643786644447</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038601278995015</v>
+        <v>1.038369296831839</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033439455041457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032958161410884</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020182595796339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00384450108233</v>
+        <v>1.003062908290475</v>
       </c>
       <c r="D5">
-        <v>1.022446134721058</v>
+        <v>1.021665670917479</v>
       </c>
       <c r="E5">
-        <v>1.009187341475168</v>
+        <v>1.008518523640608</v>
       </c>
       <c r="F5">
-        <v>1.028900710008319</v>
+        <v>1.028566731215176</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044148348930244</v>
+        <v>1.043834041873946</v>
       </c>
       <c r="J5">
-        <v>1.022697701537247</v>
+        <v>1.021935376085741</v>
       </c>
       <c r="K5">
-        <v>1.032062993632355</v>
+        <v>1.031291231428304</v>
       </c>
       <c r="L5">
-        <v>1.018954282375387</v>
+        <v>1.018293164273143</v>
       </c>
       <c r="M5">
-        <v>1.038446226785502</v>
+        <v>1.0381159124608</v>
       </c>
       <c r="N5">
-        <v>1.024150049578496</v>
+        <v>1.021896211355988</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038999998514525</v>
+        <v>1.038738576280258</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033746956751564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033210617991675</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020247977736482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004018367714355</v>
+        <v>1.00322142812542</v>
       </c>
       <c r="D6">
-        <v>1.02256008092888</v>
+        <v>1.021765952591366</v>
       </c>
       <c r="E6">
-        <v>1.009325275674894</v>
+        <v>1.008643085609948</v>
       </c>
       <c r="F6">
-        <v>1.029024462600303</v>
+        <v>1.028684000006726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044177882853124</v>
+        <v>1.043857787506164</v>
       </c>
       <c r="J6">
-        <v>1.022791396098917</v>
+        <v>1.022014001306592</v>
       </c>
       <c r="K6">
-        <v>1.032139074921542</v>
+        <v>1.031353760307736</v>
       </c>
       <c r="L6">
-        <v>1.019053391264532</v>
+        <v>1.018379018581884</v>
       </c>
       <c r="M6">
-        <v>1.038532332303118</v>
+        <v>1.038195588265174</v>
       </c>
       <c r="N6">
-        <v>1.024243877197191</v>
+        <v>1.02194029649986</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039068145397475</v>
+        <v>1.038801634489128</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03380957178224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033264523540659</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020260329376066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002852936452572</v>
+        <v>1.002179376638031</v>
       </c>
       <c r="D7">
-        <v>1.021818494342436</v>
+        <v>1.021131009008685</v>
       </c>
       <c r="E7">
-        <v>1.008405115966735</v>
+        <v>1.007831209699704</v>
       </c>
       <c r="F7">
-        <v>1.028187182473929</v>
+        <v>1.027899405289178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04399342195087</v>
+        <v>1.043719205547106</v>
       </c>
       <c r="J7">
-        <v>1.022177880219211</v>
+        <v>1.021521427215262</v>
       </c>
       <c r="K7">
-        <v>1.031657616764801</v>
+        <v>1.03097800097515</v>
       </c>
       <c r="L7">
-        <v>1.018400178393564</v>
+        <v>1.017833058876344</v>
       </c>
       <c r="M7">
-        <v>1.03795401988695</v>
+        <v>1.037669485183897</v>
       </c>
       <c r="N7">
-        <v>1.023629490054564</v>
+        <v>1.021716855422949</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038610448837062</v>
+        <v>1.038385258069297</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03347336834531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033003479806435</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020192087078451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9978861871835087</v>
+        <v>0.997696676455334</v>
       </c>
       <c r="D8">
-        <v>1.018658177718397</v>
+        <v>1.018395028852232</v>
       </c>
       <c r="E8">
-        <v>1.004494642946554</v>
+        <v>1.004343579568788</v>
       </c>
       <c r="F8">
-        <v>1.024634652205131</v>
+        <v>1.024552951832976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043182966590311</v>
+        <v>1.043089666381703</v>
       </c>
       <c r="J8">
-        <v>1.019555884850188</v>
+        <v>1.019371904863348</v>
       </c>
       <c r="K8">
-        <v>1.029591206810288</v>
+        <v>1.029331461999736</v>
       </c>
       <c r="L8">
-        <v>1.015614073708154</v>
+        <v>1.015465034020182</v>
       </c>
       <c r="M8">
-        <v>1.035490958675317</v>
+        <v>1.035410299587884</v>
       </c>
       <c r="N8">
-        <v>1.021003771151369</v>
+        <v>1.020618772724882</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036661093243217</v>
+        <v>1.036597256638302</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032016827973095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031844290713833</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019882479373066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9887717183322935</v>
+        <v>0.9894176858585653</v>
       </c>
       <c r="D9">
-        <v>1.012876455516324</v>
+        <v>1.013350921594441</v>
       </c>
       <c r="E9">
-        <v>0.9973655995440607</v>
+        <v>0.9979387603540357</v>
       </c>
       <c r="F9">
-        <v>1.018174124160286</v>
+        <v>1.01844681652957</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041614133116818</v>
+        <v>1.041831950713658</v>
       </c>
       <c r="J9">
-        <v>1.014727303358764</v>
+        <v>1.015349748027501</v>
       </c>
       <c r="K9">
-        <v>1.025764019415789</v>
+        <v>1.026231040462175</v>
       </c>
       <c r="L9">
-        <v>1.010501563148789</v>
+        <v>1.011065368492451</v>
       </c>
       <c r="M9">
-        <v>1.030979063334878</v>
+        <v>1.031247532389925</v>
       </c>
       <c r="N9">
-        <v>1.016168332520382</v>
+        <v>1.018382907777596</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033090202433685</v>
+        <v>1.033302679872361</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029307495068343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029648565627524</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019271872772324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9825095711009783</v>
+        <v>0.9838443136718407</v>
       </c>
       <c r="D10">
-        <v>1.008937640344714</v>
+        <v>1.009998308197874</v>
       </c>
       <c r="E10">
-        <v>0.9925115299549457</v>
+        <v>0.9936837990412906</v>
       </c>
       <c r="F10">
-        <v>1.013950148446953</v>
+        <v>1.014518361954386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040516396857373</v>
+        <v>1.040984965062093</v>
       </c>
       <c r="J10">
-        <v>1.011434737278216</v>
+        <v>1.01271391057766</v>
       </c>
       <c r="K10">
-        <v>1.023147376481461</v>
+        <v>1.02418935653276</v>
       </c>
       <c r="L10">
-        <v>1.007017320287914</v>
+        <v>1.008168038646979</v>
       </c>
       <c r="M10">
-        <v>1.028072015352361</v>
+        <v>1.028630339011139</v>
       </c>
       <c r="N10">
-        <v>1.012871090618336</v>
+        <v>1.01714052784457</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030841360620844</v>
+        <v>1.031283214199707</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02747431403477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028223604723251</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018870631586719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.980259533358071</v>
+        <v>0.9819685793753024</v>
       </c>
       <c r="D11">
-        <v>1.007605090220711</v>
+        <v>1.00896468843724</v>
       </c>
       <c r="E11">
-        <v>0.9908429816487357</v>
+        <v>0.9923450312663915</v>
       </c>
       <c r="F11">
-        <v>1.013827964642023</v>
+        <v>1.014559216748825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040323057127981</v>
+        <v>1.040921527440653</v>
       </c>
       <c r="J11">
-        <v>1.010477239256409</v>
+        <v>1.012111213384472</v>
       </c>
       <c r="K11">
-        <v>1.022384996801492</v>
+        <v>1.023719501195292</v>
       </c>
       <c r="L11">
-        <v>1.005939676980252</v>
+        <v>1.007412767512278</v>
       </c>
       <c r="M11">
-        <v>1.028493733818705</v>
+        <v>1.029211693198283</v>
       </c>
       <c r="N11">
-        <v>1.011912232839512</v>
+        <v>1.01725186677159</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031614797224123</v>
+        <v>1.032182694766299</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026968467124367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027927788019007</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01882418000183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.979585471515219</v>
+        <v>0.9814102867903761</v>
       </c>
       <c r="D12">
-        <v>1.007232255874686</v>
+        <v>1.008682508631747</v>
       </c>
       <c r="E12">
-        <v>0.9903735557074266</v>
+        <v>0.9919766603510072</v>
       </c>
       <c r="F12">
-        <v>1.014371408649777</v>
+        <v>1.015152390003257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040347022041029</v>
+        <v>1.040982776090067</v>
       </c>
       <c r="J12">
-        <v>1.010279664046512</v>
+        <v>1.012022779487693</v>
       </c>
       <c r="K12">
-        <v>1.022222196676702</v>
+        <v>1.023645234747285</v>
       </c>
       <c r="L12">
-        <v>1.005687536624443</v>
+        <v>1.007259206284015</v>
       </c>
       <c r="M12">
-        <v>1.02922835908362</v>
+        <v>1.02999493997455</v>
       </c>
       <c r="N12">
-        <v>1.011714377050155</v>
+        <v>1.017397331552914</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032524398373836</v>
+        <v>1.033130547096551</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026853359813927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027875279416644</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018838311187424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9800920386378755</v>
+        <v>0.981816881327201</v>
       </c>
       <c r="D13">
-        <v>1.007588349897583</v>
+        <v>1.008956158864441</v>
       </c>
       <c r="E13">
-        <v>0.9908046648219064</v>
+        <v>0.9923176326545259</v>
       </c>
       <c r="F13">
-        <v>1.015489010585327</v>
+        <v>1.016224607403164</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040551942879934</v>
+        <v>1.041148125499758</v>
       </c>
       <c r="J13">
-        <v>1.010667705985494</v>
+        <v>1.012315711277242</v>
       </c>
       <c r="K13">
-        <v>1.022528048341803</v>
+        <v>1.023870296642093</v>
       </c>
       <c r="L13">
-        <v>1.006065544980565</v>
+        <v>1.007548975484858</v>
       </c>
       <c r="M13">
-        <v>1.030282303993401</v>
+        <v>1.031004420505381</v>
       </c>
       <c r="N13">
-        <v>1.0121029700532</v>
+        <v>1.017518491801617</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033635868718895</v>
+        <v>1.034206713899581</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027067091672483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028031644479025</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018901256963945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9809782651800703</v>
+        <v>0.9825392178104513</v>
       </c>
       <c r="D14">
-        <v>1.00816668719388</v>
+        <v>1.009401499383156</v>
       </c>
       <c r="E14">
-        <v>0.9915116798920648</v>
+        <v>0.9928787301487875</v>
       </c>
       <c r="F14">
-        <v>1.016518308019245</v>
+        <v>1.017181167833623</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040775061401233</v>
+        <v>1.041310744749551</v>
       </c>
       <c r="J14">
-        <v>1.011201173893791</v>
+        <v>1.012693590187119</v>
       </c>
       <c r="K14">
-        <v>1.022952986852502</v>
+        <v>1.024165007953866</v>
       </c>
       <c r="L14">
-        <v>1.006612650359616</v>
+        <v>1.007953351470389</v>
       </c>
       <c r="M14">
-        <v>1.031151864105294</v>
+        <v>1.031802740497305</v>
       </c>
       <c r="N14">
-        <v>1.012637195547116</v>
+        <v>1.017593577267142</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034497294027196</v>
+        <v>1.035011752850739</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027368983202351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028241591980124</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018968248283864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9814591412283966</v>
+        <v>0.982934896004948</v>
       </c>
       <c r="D15">
-        <v>1.008474773317041</v>
+        <v>1.00964081955877</v>
       </c>
       <c r="E15">
-        <v>0.9918876261378453</v>
+        <v>0.9931793043607575</v>
       </c>
       <c r="F15">
-        <v>1.016926995239493</v>
+        <v>1.017552424154809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040874938912255</v>
+        <v>1.04138010098267</v>
       </c>
       <c r="J15">
-        <v>1.011468217476941</v>
+        <v>1.012879745184247</v>
       </c>
       <c r="K15">
-        <v>1.023167568565914</v>
+        <v>1.024312255408083</v>
       </c>
       <c r="L15">
-        <v>1.006891380266216</v>
+        <v>1.008158355468263</v>
       </c>
       <c r="M15">
-        <v>1.0314664056135</v>
+        <v>1.032080616216477</v>
       </c>
       <c r="N15">
-        <v>1.012904618362784</v>
+        <v>1.017616977498053</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034783581095595</v>
+        <v>1.035269046109356</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027526636026547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028352201944227</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018998422010745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9840067689595789</v>
+        <v>0.9850675436149503</v>
       </c>
       <c r="D16">
-        <v>1.010070068246246</v>
+        <v>1.010901011620986</v>
       </c>
       <c r="E16">
-        <v>0.9938479650208082</v>
+        <v>0.9947750328965266</v>
       </c>
       <c r="F16">
-        <v>1.018547251568963</v>
+        <v>1.018992397619788</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041314142827606</v>
+        <v>1.041674069635917</v>
       </c>
       <c r="J16">
-        <v>1.012790748255354</v>
+        <v>1.013807674539837</v>
       </c>
       <c r="K16">
-        <v>1.024223703278142</v>
+        <v>1.025040087340437</v>
       </c>
       <c r="L16">
-        <v>1.008292184622933</v>
+        <v>1.009202313685351</v>
       </c>
       <c r="M16">
-        <v>1.032553795526211</v>
+        <v>1.032991305071706</v>
       </c>
       <c r="N16">
-        <v>1.014229027286599</v>
+        <v>1.017728440707673</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035604187538146</v>
+        <v>1.03594999995525</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028276575294832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028870313750383</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019131205524514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9855023646707181</v>
+        <v>0.9863518648941101</v>
       </c>
       <c r="D17">
-        <v>1.010995827988362</v>
+        <v>1.011654556177574</v>
       </c>
       <c r="E17">
-        <v>0.9949876823366047</v>
+        <v>0.9957302445137483</v>
       </c>
       <c r="F17">
-        <v>1.019249619735275</v>
+        <v>1.019604070951633</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04153363426207</v>
+        <v>1.041820214790283</v>
       </c>
       <c r="J17">
-        <v>1.013529296057741</v>
+        <v>1.014344816003017</v>
       </c>
       <c r="K17">
-        <v>1.024813768751128</v>
+        <v>1.025461278693757</v>
       </c>
       <c r="L17">
-        <v>1.009084170132686</v>
+        <v>1.009813554490367</v>
       </c>
       <c r="M17">
-        <v>1.032928346649788</v>
+        <v>1.033276884485492</v>
       </c>
       <c r="N17">
-        <v>1.014968623911578</v>
+        <v>1.017839611978553</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035770686860923</v>
+        <v>1.036046202629892</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028696395896424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029170979257353</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019202132135309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986210844655691</v>
+        <v>0.9869786604124924</v>
       </c>
       <c r="D18">
-        <v>1.011407520890633</v>
+        <v>1.01199924507731</v>
       </c>
       <c r="E18">
-        <v>0.9955041429925622</v>
+        <v>0.9961762366259646</v>
       </c>
       <c r="F18">
-        <v>1.019116644262327</v>
+        <v>1.019436590214786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041567064052556</v>
+        <v>1.041826376200414</v>
       </c>
       <c r="J18">
-        <v>1.013805105413007</v>
+        <v>1.014542787375805</v>
       </c>
       <c r="K18">
-        <v>1.02503220862345</v>
+        <v>1.02561402120382</v>
       </c>
       <c r="L18">
-        <v>1.009400934683976</v>
+        <v>1.010061301253855</v>
       </c>
       <c r="M18">
-        <v>1.032613361170469</v>
+        <v>1.032928049841681</v>
       </c>
       <c r="N18">
-        <v>1.015244824947764</v>
+        <v>1.017867351956234</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035282854221612</v>
+        <v>1.035531664814082</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028839087939039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029266087159628</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019213496355064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9862012513435617</v>
+        <v>0.9869882529637193</v>
       </c>
       <c r="D19">
-        <v>1.011358724457664</v>
+        <v>1.011967276615976</v>
       </c>
       <c r="E19">
-        <v>0.9954525032532454</v>
+        <v>0.996142443974922</v>
       </c>
       <c r="F19">
-        <v>1.018174453135689</v>
+        <v>1.018503396688245</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041432000822466</v>
+        <v>1.041700356569805</v>
       </c>
       <c r="J19">
-        <v>1.013658146621692</v>
+        <v>1.014414442790443</v>
       </c>
       <c r="K19">
-        <v>1.024920722576562</v>
+        <v>1.02551913475564</v>
       </c>
       <c r="L19">
-        <v>1.009285229147501</v>
+        <v>1.009963194789313</v>
       </c>
       <c r="M19">
-        <v>1.031623774599093</v>
+        <v>1.031947329146183</v>
       </c>
       <c r="N19">
-        <v>1.015097657458109</v>
+        <v>1.017771937242851</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034172931729814</v>
+        <v>1.034428836716111</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028766722184296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029206081676271</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019171125637801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9841608745092526</v>
+        <v>0.9852466786772958</v>
       </c>
       <c r="D20">
-        <v>1.00999224634542</v>
+        <v>1.01085021180461</v>
       </c>
       <c r="E20">
-        <v>0.9937930000116838</v>
+        <v>0.9947460506320066</v>
       </c>
       <c r="F20">
-        <v>1.015063404903503</v>
+        <v>1.015522966938445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04082157772318</v>
+        <v>1.041200796475335</v>
       </c>
       <c r="J20">
-        <v>1.012316323947354</v>
+        <v>1.013358406018681</v>
       </c>
       <c r="K20">
-        <v>1.023861640600624</v>
+        <v>1.024704919201341</v>
       </c>
       <c r="L20">
-        <v>1.007945877217443</v>
+        <v>1.008881917840733</v>
       </c>
       <c r="M20">
-        <v>1.028846454807715</v>
+        <v>1.029298247068508</v>
       </c>
       <c r="N20">
-        <v>1.013753929241664</v>
+        <v>1.017304312089112</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031443606505783</v>
+        <v>1.031801156229972</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02802185772141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028634739444848</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018971464265495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9793562906652092</v>
+        <v>0.9812912715282718</v>
       </c>
       <c r="D21">
-        <v>1.006961170204151</v>
+        <v>1.008503229830325</v>
       </c>
       <c r="E21">
-        <v>0.9900687546787463</v>
+        <v>0.9917742776043084</v>
       </c>
       <c r="F21">
-        <v>1.011566315694824</v>
+        <v>1.01240161786841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039920662034019</v>
+        <v>1.040605757869774</v>
       </c>
       <c r="J21">
-        <v>1.009743211478083</v>
+        <v>1.011592570742511</v>
       </c>
       <c r="K21">
-        <v>1.02181185041179</v>
+        <v>1.023325277004231</v>
       </c>
       <c r="L21">
-        <v>1.005240752305295</v>
+        <v>1.00691318274995</v>
       </c>
       <c r="M21">
-        <v>1.026331824667658</v>
+        <v>1.027151786223305</v>
       </c>
       <c r="N21">
-        <v>1.011177162657547</v>
+        <v>1.017133824101627</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029412176604777</v>
+        <v>1.030061131083199</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026575813977197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027662847015194</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018714842652874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9762963056996838</v>
+        <v>0.9787587982338803</v>
       </c>
       <c r="D22">
-        <v>1.005034152203273</v>
+        <v>1.007005352142813</v>
       </c>
       <c r="E22">
-        <v>0.987707608921685</v>
+        <v>0.98988100666754</v>
       </c>
       <c r="F22">
-        <v>1.00943950102916</v>
+        <v>1.01051076308459</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039346202223044</v>
+        <v>1.040224049527036</v>
       </c>
       <c r="J22">
-        <v>1.008113321003829</v>
+        <v>1.010460451804126</v>
       </c>
       <c r="K22">
-        <v>1.020506536893241</v>
+        <v>1.022439297424454</v>
       </c>
       <c r="L22">
-        <v>1.003526577917632</v>
+        <v>1.005655623826583</v>
       </c>
       <c r="M22">
-        <v>1.024826250577546</v>
+        <v>1.025876836299343</v>
       </c>
       <c r="N22">
-        <v>1.009544957551869</v>
+        <v>1.016976364514546</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028220595924259</v>
+        <v>1.029052078070408</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025639224173521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027021460181162</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018548294314375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779143431330132</v>
+        <v>0.980064638981454</v>
       </c>
       <c r="D23">
-        <v>1.006046355525763</v>
+        <v>1.007765251114146</v>
       </c>
       <c r="E23">
-        <v>0.9889538551313911</v>
+        <v>0.9908490458858241</v>
       </c>
       <c r="F23">
-        <v>1.010565454935637</v>
+        <v>1.011495843439977</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039646880688421</v>
+        <v>1.040410318459269</v>
       </c>
       <c r="J23">
-        <v>1.008970956417659</v>
+        <v>1.011023490699701</v>
       </c>
       <c r="K23">
-        <v>1.02118891845022</v>
+        <v>1.022875145832367</v>
       </c>
       <c r="L23">
-        <v>1.00442939246971</v>
+        <v>1.006286919386166</v>
       </c>
       <c r="M23">
-        <v>1.025622441689945</v>
+        <v>1.026535335801248</v>
       </c>
       <c r="N23">
-        <v>1.010403810906358</v>
+        <v>1.016968635114326</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028850738498728</v>
+        <v>1.029573244531864</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026111962404876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027318951192267</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018625730423209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.984173185259322</v>
+        <v>0.9852592830137228</v>
       </c>
       <c r="D24">
-        <v>1.009983272715594</v>
+        <v>1.010841467487587</v>
       </c>
       <c r="E24">
-        <v>0.9937940614050516</v>
+        <v>0.9947474595524636</v>
       </c>
       <c r="F24">
-        <v>1.014937336586904</v>
+        <v>1.015397125122026</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04079723365725</v>
+        <v>1.041176820327777</v>
       </c>
       <c r="J24">
-        <v>1.012294388063026</v>
+        <v>1.013336815154271</v>
       </c>
       <c r="K24">
-        <v>1.023837310122722</v>
+        <v>1.024680832663499</v>
       </c>
       <c r="L24">
-        <v>1.007931043889357</v>
+        <v>1.008867447871327</v>
       </c>
       <c r="M24">
-        <v>1.028707117259889</v>
+        <v>1.029159139684498</v>
       </c>
       <c r="N24">
-        <v>1.013731962205865</v>
+        <v>1.017284168120364</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031292088398263</v>
+        <v>1.031649838396254</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027976957778416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028587348171288</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018961149527881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.991188060706676</v>
+        <v>0.991581341709115</v>
       </c>
       <c r="D25">
-        <v>1.014416379140987</v>
+        <v>1.014673647481439</v>
       </c>
       <c r="E25">
-        <v>0.9992518176954275</v>
+        <v>0.9996050435513862</v>
       </c>
       <c r="F25">
-        <v>1.019876045790803</v>
+        <v>1.02004073770606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042045512754837</v>
+        <v>1.04217055676689</v>
       </c>
       <c r="J25">
-        <v>1.016015664986332</v>
+        <v>1.016395387268162</v>
       </c>
       <c r="K25">
-        <v>1.026794946816383</v>
+        <v>1.027048365784192</v>
       </c>
       <c r="L25">
-        <v>1.011861759344184</v>
+        <v>1.012209493805585</v>
       </c>
       <c r="M25">
-        <v>1.03217345271324</v>
+        <v>1.032335713547334</v>
       </c>
       <c r="N25">
-        <v>1.017458523769238</v>
+        <v>1.018902418860764</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034035490759321</v>
+        <v>1.034163910483963</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030065307997761</v>
+        <v>1.030258146557215</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019435095731399</v>
       </c>
     </row>
   </sheetData>
